--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>DATA</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>GNB</t>
+  </si>
+  <si>
+    <t>SDR+GRID(200)</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ACCURACY</t>
   </si>
 </sst>
 </file>
@@ -199,8 +208,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="180" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -297,16 +306,16 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -621,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,11 +643,12 @@
     <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -658,13 +668,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>42431</v>
       </c>
@@ -682,10 +695,39 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6">
+        <v>0.19799</v>
+      </c>
+      <c r="H2" s="6">
         <v>2.65435</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>2.6565599999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42432</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.20771000000000001</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.6499100000000002</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.6509299999999998</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>DATA</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>ACCURACY</t>
+  </si>
+  <si>
+    <t>POSIZIONE</t>
+  </si>
+  <si>
+    <t>873/1381</t>
+  </si>
+  <si>
+    <t>865/1381</t>
   </si>
 </sst>
 </file>
@@ -248,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -299,11 +308,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -316,6 +362,18 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -630,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,10 +703,11 @@
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -673,11 +732,14 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>42431</v>
       </c>
@@ -700,11 +762,14 @@
       <c r="H2" s="6">
         <v>2.65435</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="11">
         <v>2.6565599999999998</v>
       </c>
+      <c r="J2" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42432</v>
       </c>
@@ -726,8 +791,11 @@
       <c r="H3" s="3">
         <v>2.6499100000000002</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="12">
         <v>2.6509299999999998</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="n">
-        <v>42433</v>
+        <v>42432</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="n">
-        <v>42434</v>
+        <v>42432</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="n">
-        <v>42435</v>
+        <v>42432</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="n">
-        <v>42436</v>
+        <v>42432</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t xml:space="preserve">511/1390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer=100*tanh+ 100*tanh  + 100 * sigmoid + softmax
+learning_rate=0,1
+n_stable=2
+n_iter=21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">505/1390</t>
   </si>
 </sst>
 </file>
@@ -377,20 +386,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,9 +494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257040</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:colOff>256680</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -505,7 +506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11694960" cy="9971640"/>
+          <a:ext cx="11534040" cy="9971280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -538,9 +539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257040</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:colOff>256680</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -550,7 +551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11694960" cy="9971640"/>
+          <a:ext cx="11534040" cy="9971280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -583,9 +584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257040</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:colOff>256680</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -595,7 +596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11694960" cy="9971640"/>
+          <a:ext cx="11534040" cy="9971280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -628,9 +629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257040</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:colOff>256680</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -640,7 +641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11694960" cy="9971640"/>
+          <a:ext cx="11534040" cy="9971280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -673,9 +674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257040</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:colOff>256680</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -685,7 +686,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11694960" cy="9971640"/>
+          <a:ext cx="11534040" cy="9971280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -717,370 +718,402 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="36.8367346938775"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="7" t="n">
         <v>42431</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="n">
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="n">
         <v>0.19799</v>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="9" t="n">
         <v>2.65435</v>
       </c>
-      <c r="I2" s="11" t="n">
+      <c r="I2" s="9" t="n">
         <v>2.65656</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="11" t="n">
         <v>42432</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0"/>
-      <c r="G3" s="15" t="n">
+      <c r="G3" s="13" t="n">
         <v>0.20771</v>
       </c>
-      <c r="H3" s="15" t="n">
+      <c r="H3" s="13" t="n">
         <v>2.64991</v>
       </c>
-      <c r="I3" s="15" t="n">
+      <c r="I3" s="13" t="n">
         <v>2.65093</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="11" t="n">
         <v>42432</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0"/>
-      <c r="G4" s="15" t="n">
+      <c r="G4" s="13" t="n">
         <v>0.20775</v>
       </c>
-      <c r="H4" s="15" t="n">
+      <c r="H4" s="13" t="n">
         <v>2.64766</v>
       </c>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="11" t="n">
         <v>42432</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0"/>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="13" t="n">
         <v>0.20786</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="13" t="n">
         <v>2.64963</v>
       </c>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="11" t="n">
         <v>42432</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0"/>
-      <c r="G6" s="15" t="n">
+      <c r="G6" s="13" t="n">
         <v>0.20764</v>
       </c>
-      <c r="H6" s="15" t="n">
+      <c r="H6" s="13" t="n">
         <v>2.64746</v>
       </c>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="11" t="n">
         <v>42432</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0"/>
-      <c r="G7" s="15" t="n">
+      <c r="G7" s="13" t="n">
         <v>0.20861</v>
       </c>
-      <c r="H7" s="15" t="n">
+      <c r="H7" s="13" t="n">
         <v>2.64754</v>
       </c>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="11" t="n">
         <v>42432</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0"/>
-      <c r="G8" s="15" t="n">
+      <c r="G8" s="13" t="n">
         <v>0.20843</v>
       </c>
-      <c r="H8" s="15" t="n">
+      <c r="H8" s="13" t="n">
         <v>2.64589</v>
       </c>
-      <c r="I8" s="15" t="n">
+      <c r="I8" s="13" t="n">
         <v>2.64736</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="11" t="n">
         <v>42432</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="0"/>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0"/>
-      <c r="G9" s="15" t="n">
+      <c r="G9" s="13" t="n">
         <v>0.20559</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="13" t="n">
         <v>2.66475</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="11" t="n">
         <v>42433</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="13" t="n">
         <v>0.2127</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" s="13" t="n">
         <v>2.63403</v>
       </c>
-      <c r="I10" s="15" t="n">
+      <c r="I10" s="13" t="n">
         <v>2.64336</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="11" t="n">
         <v>42433</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="13" t="n">
         <v>0.22523</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="13" t="n">
         <v>2.59278</v>
       </c>
-      <c r="I11" s="15" t="n">
+      <c r="I11" s="13" t="n">
         <v>2.7406</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
+      <c r="A12" s="15" t="n">
         <v>42433</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="21" t="n">
+      <c r="G12" s="19" t="n">
         <v>0.23021</v>
       </c>
-      <c r="H12" s="21" t="n">
+      <c r="H12" s="19" t="n">
         <v>2.56315</v>
       </c>
-      <c r="I12" s="21" t="n">
+      <c r="I12" s="19" t="n">
         <v>2.56476</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="20" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="n">
+        <v>42433</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="19" t="n">
+        <v>0.23028</v>
+      </c>
+      <c r="H13" s="19" t="n">
+        <v>2.55942</v>
+      </c>
+      <c r="I13" s="19" t="n">
+        <v>2.56269</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
